--- a/xlsx/税收_intext.xlsx
+++ b/xlsx/税收_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="405">
   <si>
     <t>税收</t>
   </si>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%9F%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>貨幣基數</t>
+    <t>货币基数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91%E6%AF%94%E7%8E%87</t>
   </si>
   <si>
-    <t>存款準備金比率</t>
+    <t>存款准备金比率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91</t>
   </si>
   <si>
-    <t>存款準備金</t>
+    <t>存款准备金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E5%82%A8%E5%A4%87</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%88%A9%E5%BE%97</t>
   </si>
   <si>
-    <t>貿易利得</t>
+    <t>贸易利得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>商務部</t>
+    <t>商务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E5%A3%81%E5%9E%92</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>實體</t>
+    <t>实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E4%BC%9A</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>公立學校</t>
+    <t>公立学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B8%E5%B8%81</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%94%B6</t>
   </si>
   <si>
-    <t>沒收</t>
+    <t>没收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%8B%99%E6%B5%B7%E9%97%9C%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>稅務海關總署</t>
+    <t>税务海关总署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%99%95%E7%BD%B0</t>
   </si>
   <si>
-    <t>刑事處罰</t>
+    <t>刑事处罚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>公共服務</t>
+    <t>公共服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%81%AF</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82</t>
   </si>
   <si>
-    <t>醫療</t>
+    <t>医疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%BB%E8%80%81</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民主國家</t>
+    <t>民主国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>極權國家</t>
+    <t>极权国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府資本主義</t>
+    <t>无政府资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>投資</t>
+    <t>投资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%B2%E8%93%84</t>
   </si>
   <si>
-    <t>儲蓄</t>
+    <t>储蓄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A5%E8%83%96</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%8E%8B%E5%9C%8B%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>古王國時期</t>
+    <t>古王国时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%8F%B2</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%91%A8</t>
@@ -491,9 +491,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%95%E7%94%B0%E5%88%B6</t>
   </si>
   <si>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E5%9C%8B</t>
   </si>
   <si>
-    <t>齊國</t>
+    <t>齐国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E4%BB%B2</t>
@@ -521,25 +518,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%91%A8</t>
   </si>
   <si>
-    <t>東周</t>
+    <t>东周</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E5%82%B3</t>
   </si>
   <si>
-    <t>左傳</t>
+    <t>左传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%9C%8B</t>
   </si>
   <si>
-    <t>魯國</t>
+    <t>鲁国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%9F%E5%BA%B8%E8%AA%BF</t>
   </si>
   <si>
-    <t>租庸調</t>
+    <t>租庸调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%98%E9%87%91</t>
@@ -557,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E8%B2%BB</t>
   </si>
   <si>
-    <t>軍費</t>
+    <t>军费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當·斯密</t>
+    <t>亚当·斯密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -575,13 +572,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>小政府主義</t>
+    <t>小政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E8%8F%AF%E6%A0%BC%E7%B4%8D</t>
   </si>
   <si>
-    <t>阿道夫·華格納</t>
+    <t>阿道夫·华格纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%BC%97%E6%9B%B2%E7%BA%BF</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>思想實驗</t>
+    <t>思想实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%80%BC%E5%AE%9A%E7%90%86</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A7%86%E9%BD%8A%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>拉姆齊問題</t>
+    <t>拉姆齐问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC%E9%81%9E%E6%B8%9B</t>
   </si>
   <si>
-    <t>報酬遞減</t>
+    <t>报酬递减</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%8E%AB%E7%90%86%E6%96%AF</t>
@@ -677,37 +674,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>國民政府</t>
+    <t>国民政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E5%BE%97%E7%A8%85</t>
   </si>
   <si>
-    <t>所得稅</t>
+    <t>所得税</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Excise</t>
@@ -731,13 +728,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80</t>
   </si>
   <si>
-    <t>金門</t>
+    <t>金门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%A5%96</t>
   </si>
   <si>
-    <t>馬祖</t>
+    <t>马祖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E7%A8%8E</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E7%A8%85</t>
   </si>
   <si>
-    <t>直接稅</t>
+    <t>直接税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BA%A7%E7%A8%8E</t>
@@ -767,19 +764,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E6%8E%A5%E7%A8%85</t>
   </si>
   <si>
-    <t>間接稅</t>
+    <t>间接税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E8%8A%B1%E7%A8%85</t>
   </si>
   <si>
-    <t>印花稅</t>
+    <t>印花税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E7%94%A8%E7%89%8C%E7%85%A7%E7%A8%85</t>
   </si>
   <si>
-    <t>使用牌照稅</t>
+    <t>使用牌照税</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Entertainment_tax</t>
@@ -791,31 +788,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%83%B9%E7%A8%85</t>
   </si>
   <si>
-    <t>地價稅</t>
+    <t>地价税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E8%B3%A6</t>
   </si>
   <si>
-    <t>田賦</t>
+    <t>田赋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E5%A2%9E%E5%80%BC%E7%A8%85</t>
   </si>
   <si>
-    <t>土地增值稅</t>
+    <t>土地增值税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
   </si>
   <si>
-    <t>中国大陆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD1994%E5%B9%B4%E7%A8%8E%E5%88%B6%E6%94%B9%E9%9D%A9</t>
@@ -833,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E7%A8%85</t>
   </si>
   <si>
-    <t>消費稅</t>
+    <t>消费税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E6%89%80%E5%BE%97%E7%A8%8E</t>
@@ -881,9 +875,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E8%8A%B1%E7%A8%8E</t>
   </si>
   <si>
-    <t>印花税</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E7%A8%8E</t>
   </si>
   <si>
@@ -917,27 +908,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%A8%85%E6%94%B6</t>
   </si>
   <si>
-    <t>香港稅收</t>
+    <t>香港税收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E7%A8%8E</t>
   </si>
   <si>
-    <t>直接税</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E5%BE%97%E7%A8%8E</t>
   </si>
   <si>
-    <t>所得税</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E7%A8%8E</t>
   </si>
   <si>
-    <t>消费税</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E4%B8%9A%E7%A8%8E</t>
   </si>
   <si>
@@ -971,25 +953,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BD%A9%E7%A8%85</t>
   </si>
   <si>
-    <t>博彩稅</t>
+    <t>博彩税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F%E4%B9%98%E5%AE%A2%E9%9B%A2%E5%A2%83%E7%A8%85</t>
   </si>
   <si>
-    <t>飛機乘客離境稅</t>
+    <t>飞机乘客离境税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%BA%97%E6%88%BF%E7%A7%9F%E7%A8%85</t>
   </si>
   <si>
-    <t>酒店房租稅</t>
+    <t>酒店房租税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E9%A6%96%E6%AC%A1%E7%99%BB%E8%A8%98%E7%A8%85</t>
   </si>
   <si>
-    <t>汽車首次登記稅</t>
+    <t>汽车首次登记税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%88%A9</t>
@@ -1025,19 +1007,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%A2%9D%E9%9E%AD%E6%B3%95</t>
   </si>
   <si>
-    <t>一條鞭法</t>
+    <t>一条鞭法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%80%97</t>
@@ -1049,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E7%B3%A7%E5%9C%8B%E7%A8%85</t>
   </si>
   <si>
-    <t>皇糧國稅</t>
+    <t>皇粮国税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%87%E7%94%B0%E5%88%B6</t>
@@ -1109,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD%E7%A8%85</t>
   </si>
   <si>
-    <t>革命稅</t>
+    <t>革命税</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tax_competition</t>
@@ -1121,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BF%E7%A8%85%E6%B8%AF</t>
   </si>
   <si>
-    <t>避稅港</t>
+    <t>避税港</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tax_resistance</t>
@@ -1145,19 +1127,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BF%E7%A8%85%E5%8F%8A%E9%80%83%E7%A8%85</t>
   </si>
   <si>
-    <t>避稅及逃稅</t>
+    <t>避税及逃税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E5%A4%96%E5%B8%B3%E6%88%B6%E7%A8%85%E6%94%B6%E9%81%B5%E5%BE%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>美國海外帳戶稅收遵從法</t>
+    <t>美国海外帐户税收遵从法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E7%94%B3%E5%A0%B1%E6%BA%96%E5%89%87</t>
   </si>
   <si>
-    <t>共同申報準則</t>
+    <t>共同申报准则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ernst_%26_Young</t>
@@ -1175,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A1%E6%B2%AB%E7%BB%8F%E6%B5%8E</t>
@@ -1193,43 +1175,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84</t>
   </si>
   <si>
-    <t>投资</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A0%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>負資產</t>
+    <t>负资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%92%E6%A8%93</t>
   </si>
   <si>
-    <t>炒樓</t>
+    <t>炒楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%A5%AD%E7%A8%85</t>
   </si>
   <si>
-    <t>物業稅</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%BE%97%E7%A8%85</t>
   </si>
   <si>
-    <t>利得稅</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>商學</t>
+    <t>商学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1247,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85</t>
@@ -3889,7 +3862,7 @@
         <v>157</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3915,10 +3888,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3944,10 +3917,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3973,10 +3946,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4002,10 +3975,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4031,10 +4004,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4060,10 +4033,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4089,10 +4062,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4118,10 +4091,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4147,10 +4120,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4176,10 +4149,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4205,10 +4178,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4234,10 +4207,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4263,10 +4236,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4292,10 +4265,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4321,10 +4294,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4350,10 +4323,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>9</v>
@@ -4379,10 +4352,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -4408,10 +4381,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4437,10 +4410,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4466,10 +4439,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4495,10 +4468,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4524,10 +4497,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4553,10 +4526,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -4582,10 +4555,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
@@ -4611,10 +4584,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4640,10 +4613,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4669,10 +4642,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4698,10 +4671,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4727,10 +4700,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4756,10 +4729,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>38</v>
@@ -4785,10 +4758,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4814,10 +4787,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>6</v>
@@ -4843,10 +4816,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4872,10 +4845,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4901,10 +4874,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4930,10 +4903,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>6</v>
@@ -4959,10 +4932,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -4988,10 +4961,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>4</v>
@@ -5017,10 +4990,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5046,10 +5019,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5075,10 +5048,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5104,10 +5077,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -5133,10 +5106,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5162,10 +5135,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5191,10 +5164,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -5220,10 +5193,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5278,10 +5251,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5307,10 +5280,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5336,10 +5309,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5365,10 +5338,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5394,10 +5367,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5423,10 +5396,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5452,10 +5425,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5481,10 +5454,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5510,10 +5483,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5539,10 +5512,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>216</v>
+      </c>
+      <c r="F136" t="s">
         <v>217</v>
-      </c>
-      <c r="F136" t="s">
-        <v>218</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5568,10 +5541,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5597,10 +5570,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5626,10 +5599,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5655,10 +5628,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5684,10 +5657,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>4</v>
@@ -5713,10 +5686,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5742,10 +5715,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5771,10 +5744,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5800,10 +5773,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5829,10 +5802,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5858,10 +5831,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5887,10 +5860,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5916,10 +5889,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5945,10 +5918,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5974,10 +5947,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>240</v>
+      </c>
+      <c r="F151" t="s">
         <v>241</v>
-      </c>
-      <c r="F151" t="s">
-        <v>242</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6003,10 +5976,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>6</v>
@@ -6032,10 +6005,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6061,10 +6034,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6090,10 +6063,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -6119,10 +6092,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F156" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6148,10 +6121,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -6177,10 +6150,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6206,10 +6179,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6235,10 +6208,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6264,10 +6237,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6293,10 +6266,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6322,10 +6295,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>244</v>
+      </c>
+      <c r="F163" t="s">
         <v>245</v>
-      </c>
-      <c r="F163" t="s">
-        <v>246</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6351,10 +6324,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6380,10 +6353,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6409,10 +6382,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6438,10 +6411,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6467,10 +6440,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6496,10 +6469,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6525,10 +6498,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6554,10 +6527,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6583,10 +6556,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6612,10 +6585,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F173" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6641,10 +6614,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6670,10 +6643,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6699,10 +6672,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6728,10 +6701,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6757,10 +6730,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6786,10 +6759,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6815,10 +6788,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6844,10 +6817,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6902,10 +6875,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6931,10 +6904,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6960,10 +6933,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6989,10 +6962,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7018,10 +6991,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7047,10 +7020,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7076,10 +7049,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7105,10 +7078,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7134,10 +7107,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7163,10 +7136,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7192,10 +7165,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7221,10 +7194,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7250,10 +7223,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7279,10 +7252,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7308,10 +7281,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7337,10 +7310,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7395,10 +7368,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7424,10 +7397,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7453,10 +7426,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7482,10 +7455,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7511,10 +7484,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>142</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7540,10 +7513,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7569,10 +7542,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7598,10 +7571,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7627,10 +7600,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>306</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7685,10 +7658,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7714,10 +7687,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -7743,10 +7716,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7772,10 +7745,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7801,10 +7774,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7830,10 +7803,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G215" t="n">
         <v>12</v>
@@ -7859,10 +7832,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F216" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>

--- a/xlsx/税收_intext.xlsx
+++ b/xlsx/税收_intext.xlsx
@@ -29,7 +29,7 @@
     <t>公共财政</t>
   </si>
   <si>
-    <t>政策_政策_经济政策_税收</t>
+    <t>体育运动_体育运动_古埃及_税收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
